--- a/PC Press .xlsx
+++ b/PC Press .xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dado\Desktop\pcPress\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -350,6 +358,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">- Check the first checkbox
@@ -365,14 +374,16 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>prodavnica.pcpress.rs</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> link
@@ -404,6 +415,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t>- Check the first checkbox
@@ -419,21 +431,24 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>prodaja@pcpress.rs</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> link
@@ -455,6 +470,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t>- Check the first checkbox
@@ -470,13 +486,15 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Pc Prodavnice link
@@ -551,23 +569,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">- Check the first checkbox
 - Enter </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Invalid Količina</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 - Click on the "Kupujem" button</t>
@@ -601,8 +622,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">- Check the first checkbox
 - Click on the "Kupujem" button
@@ -610,15 +632,17 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Invalid Ime i Prezime</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 - Enter Ulica i Broj 
@@ -649,8 +673,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">- Check the first checkbox
 - Click on the "Kupujem" button
@@ -659,15 +684,17 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Invalid Ulica i Broj </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 - Enter Poštanski broj
@@ -731,8 +758,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">- Check the first checkbox
 - Click on the "Kupujem" button
@@ -744,15 +772,17 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Invalid Telefon</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 - Enter Email 
@@ -779,8 +809,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">- Check the first checkbox
 - Click on the "Kupujem" button
@@ -793,15 +824,17 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Invalid Email</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 - Click on the "Naručujem" button
@@ -834,36 +867,60 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF00FF00"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
@@ -873,7 +930,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -889,7 +946,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -903,8 +966,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -914,6 +979,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -922,67 +988,75 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1172,669 +1246,674 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A5:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E24" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="33.38"/>
-    <col customWidth="1" min="3" max="3" width="15.5"/>
-    <col customWidth="1" min="4" max="4" width="34.88"/>
-    <col customWidth="1" min="5" max="5" width="31.88"/>
-    <col customWidth="1" min="6" max="6" width="21.13"/>
-    <col customWidth="1" min="7" max="7" width="19.13"/>
-    <col customWidth="1" min="8" max="8" width="15.0"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1866,7 +1945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>106</v>
       </c>
@@ -1898,7 +1977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>112</v>
       </c>
@@ -1930,7 +2009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>115</v>
       </c>
@@ -1962,7 +2041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>119</v>
       </c>
@@ -1994,7 +2073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>123</v>
       </c>
@@ -2026,7 +2105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>129</v>
       </c>
@@ -2058,7 +2137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>133</v>
       </c>
@@ -2090,7 +2169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>137</v>
       </c>
@@ -2124,10 +2203,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D19"/>
-    <hyperlink r:id="rId2" ref="D20"/>
-    <hyperlink r:id="rId3" ref="D21"/>
+    <hyperlink ref="D19" r:id="rId1"/>
+    <hyperlink ref="D20" r:id="rId2"/>
+    <hyperlink ref="D21" r:id="rId3"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>